--- a/AVSalesBoosterAPI/FormatFiles/ImportedEmployeeDetails.xlsx
+++ b/AVSalesBoosterAPI/FormatFiles/ImportedEmployeeDetails.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronak\Downloads\Excel_Import_Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758A519C-1AEE-42B1-89D8-0D01BC15B2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB702E4F-321A-4131-B58F-7494CE4D4211}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -569,37 +563,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1F6BB-2006-41C7-982A-04252BE53C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -959,11 +953,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{C15D26D0-83B2-4DE5-8A96-A372C1F51A08}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{48D55A9E-4A79-4B2E-9397-0FDAC4557523}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{E62FCB67-7FE9-4559-BDCE-009B5222F73E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{A1A4879C-63A7-4294-ADC5-C6E4B54FDF5C}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{7297447F-89C6-45ED-A366-D9DCF4ACD343}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
